--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_140.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_140.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,636 +488,678 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3025210084033613</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.106312292358804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.070127, 13.723731)]</t>
+          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:11.960000', '0:00:16.400000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:20.860000', '0:00:27.060000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1583333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(45.4, 48.12), (98.02, 110.76)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(180.06, 182.26), (22.66, 29.32)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.101010101010101</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.732085, 40.296348)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(84.323, 87.713)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:16.920000', '0:00:23.900000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08830950378469302</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1388888888888889</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
+          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(62.53, 66.23)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:56.454081', '0:01:01.864331')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.900000', '0:00:11.160000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09411196911196912</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(103.520929, 108.664149)]</t>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:22.379117', '0:02:27.510727')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.419047619047619</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(70.203514, 92.97068)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.49, 50.26)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5348837209302325</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:maj', 'C:maj', 'G/3']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09601873536299765</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88), (64.08, 70.34)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:19.520000', '0:00:23.120000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08832236842105262</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5740740740740741</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'G']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.72, 7.99)]</t>
+          <t>[['D', 'G', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(112.415782, 119.834557)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:04.063000', '0:00:08.399000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4689655172413794</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(128.54, 133.9)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.20815, 12.997936)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1733870967741936</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab:7', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'A']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(94.88, 97.74)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.192174, 27.488682)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07187499999999999</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'G:7']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(282.12, 284.72)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.84, 13.24)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(44.0, 61.06), (129.38, 134.38)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(113.14, 114.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(74.7, 94.12)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
